--- a/en/downloads/data-excel/5.b.1.xlsx
+++ b/en/downloads/data-excel/5.b.1.xlsx
@@ -55,9 +55,6 @@
     <t>Высшее</t>
   </si>
   <si>
-    <t>5.b.1 Proportion of woman aged 15 to 49  who own a mobile telephone</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -347,6 +344,9 @@
   </si>
   <si>
     <t>By education</t>
+  </si>
+  <si>
+    <t>5.b.1 Proportion of individuals who own a mobile telephone, by sex</t>
   </si>
 </sst>
 </file>
@@ -984,10 +984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,35 +995,35 @@
     <col min="1" max="3" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="D1" s="25"/>
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
     </row>
-    <row r="2" spans="1:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="15"/>
       <c r="C3" s="25"/>
@@ -1031,7 +1031,7 @@
       <c r="E3" s="26"/>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,16 +1053,19 @@
       <c r="G4" s="42">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="17">
         <v>91.8</v>
@@ -1076,31 +1079,35 @@
       <c r="G5" s="43">
         <v>92.994602261738635</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="43">
+        <v>92.960099223795225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="33"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="19">
         <v>94.9</v>
@@ -1114,16 +1121,19 @@
       <c r="G7" s="44">
         <v>96.703290161846695</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="44">
+        <v>96.03949422949897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="19">
         <v>89.9</v>
@@ -1137,31 +1147,35 @@
       <c r="G8" s="44">
         <v>90.681478172547202</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="44">
+        <v>91.012153547624152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="33"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="44"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="19">
         <v>92.8</v>
@@ -1175,16 +1189,19 @@
       <c r="G10" s="44">
         <v>94.137111592107743</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="44">
+        <v>94.391087218067838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="21">
         <v>91</v>
@@ -1198,31 +1215,35 @@
       <c r="G11" s="44">
         <v>92.036288528946841</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="44">
+        <v>91.76755842559642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="33"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="32">
         <v>91.1</v>
@@ -1236,16 +1257,19 @@
       <c r="G13" s="44">
         <v>93.333535676152664</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="44">
+        <v>92.942689638142156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="32">
         <v>90.6</v>
@@ -1259,16 +1283,19 @@
       <c r="G14" s="44">
         <v>83.868737074772881</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="44">
+        <v>86.897877953385489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="32">
         <v>92.1</v>
@@ -1282,16 +1309,19 @@
       <c r="G15" s="44">
         <v>96.414752760301269</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="44">
+        <v>96.500794494289821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="32">
         <v>89.4</v>
@@ -1305,16 +1335,19 @@
       <c r="G16" s="44">
         <v>93.03550750069985</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="44">
+        <v>94.135975315309977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="32">
         <v>87.6</v>
@@ -1328,16 +1361,19 @@
       <c r="G17" s="44">
         <v>92.867770679094491</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="44">
+        <v>89.456106196597958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="32">
         <v>91.5</v>
@@ -1351,16 +1387,19 @@
       <c r="G18" s="44">
         <v>92.877987892122846</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="44">
+        <v>94.270923428904894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="32">
         <v>94.6</v>
@@ -1374,16 +1413,19 @@
       <c r="G19" s="44">
         <v>96.944231580397187</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="44">
+        <v>97.027480110114013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="32">
         <v>97</v>
@@ -1397,16 +1439,19 @@
       <c r="G20" s="44">
         <v>97.652833077455327</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="44">
+        <v>98.077227596867303</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="32">
         <v>88.3</v>
@@ -1420,31 +1465,35 @@
       <c r="G21" s="44">
         <v>95.839569929950628</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="44">
+        <v>90.983384827072243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>107</v>
-      </c>
       <c r="C22" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="29"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="29" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>45</v>
       </c>
       <c r="D23" s="19">
         <v>90.9</v>
@@ -1458,16 +1507,19 @@
       <c r="G23" s="44">
         <v>91.964756617658111</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+      <c r="H23" s="44">
+        <v>90.468970496790078</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="19">
         <v>95.9</v>
@@ -1481,16 +1533,19 @@
       <c r="G24" s="44">
         <v>95.6254397345499</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="44">
+        <v>95.809965597614095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25" s="19">
         <v>78.8</v>
@@ -1504,31 +1559,35 @@
       <c r="G25" s="44">
         <v>86.706526971056761</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="44">
+        <v>88.221110530662017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="C26" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>110</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="33"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="44"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="21">
         <v>58.1</v>
@@ -1542,16 +1601,19 @@
       <c r="G27" s="44">
         <v>68.07602651616979</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="44">
+        <v>69.811292606515579</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="32">
         <v>84</v>
@@ -1565,16 +1627,19 @@
       <c r="G28" s="44">
         <v>89.482324868373453</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="44">
+        <v>85.757158930558518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="32">
         <v>92.8</v>
@@ -1588,16 +1653,19 @@
       <c r="G29" s="44">
         <v>92.677683811280133</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="44">
+        <v>93.032103866435918</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="32">
         <v>96.4</v>
@@ -1611,16 +1679,19 @@
       <c r="G30" s="44">
         <v>97.302274668967783</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="44">
+        <v>97.325262246493097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="36" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="37">
         <v>98.1</v>
@@ -1634,31 +1705,35 @@
       <c r="G31" s="44">
         <v>98.334717525085637</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="44">
+        <v>98.908492141713779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="33"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" s="21">
         <v>88.941426622414284</v>
@@ -1672,16 +1747,19 @@
       <c r="G33" s="45">
         <v>86.414024436249534</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="45">
+        <v>91.968006037496949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D34" s="32">
         <v>90.23458414066539</v>
@@ -1695,16 +1773,19 @@
       <c r="G34" s="45">
         <v>93.331957186877816</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="45">
+        <v>91.809335747904541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" s="32">
         <v>91.864445807623227</v>
@@ -1718,16 +1799,19 @@
       <c r="G35" s="45">
         <v>94.055975974605076</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="45">
+        <v>91.27524653351901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="32">
         <v>91.919083771526047</v>
@@ -1741,16 +1825,19 @@
       <c r="G36" s="45">
         <v>95.4499076460569</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="45">
+        <v>94.397288657466234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37" s="38">
         <v>94.603144049655228</v>
@@ -1764,23 +1851,26 @@
       <c r="G37" s="46">
         <v>96.978118072483895</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="46">
+        <v>96.740699993405215</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>59</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1789,7 +1879,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -1798,7 +1888,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -1807,7 +1897,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -1815,7 +1905,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -1823,7 +1913,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1831,7 +1921,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1839,7 +1929,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1847,7 +1937,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1855,7 +1945,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
